--- a/state_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
+++ b/state_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:U228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76655130701716</v>
+        <v>1.79597747957363</v>
       </c>
       <c r="H2" t="n">
-        <v>7.47032188594394</v>
+        <v>9.08876137654973</v>
       </c>
       <c r="I2" t="n">
         <v>3.9</v>
@@ -1153,7 +1153,7 @@
         <v>0.008370000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0135425152088055</v>
+        <v>0.0135433401832076</v>
       </c>
       <c r="H9" t="n">
         <v>0.0963364901792108</v>
@@ -1234,7 +1234,7 @@
         <v>0.008370000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0135425152088055</v>
+        <v>0.0135433401832076</v>
       </c>
       <c r="H10" t="n">
         <v>0.0963364901792108</v>
@@ -1315,7 +1315,7 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.564015457232696</v>
+        <v>0.564025989394335</v>
       </c>
       <c r="H11" t="n">
         <v>1.68</v>
@@ -1396,7 +1396,7 @@
         <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.564015457232696</v>
+        <v>0.564025989394335</v>
       </c>
       <c r="H12" t="n">
         <v>1.68</v>
@@ -1473,7 +1473,7 @@
         <v>0.4665</v>
       </c>
       <c r="G13" t="n">
-        <v>0.544033333333333</v>
+        <v>0.544016666666667</v>
       </c>
       <c r="H13" t="n">
         <v>2.286</v>
@@ -1550,7 +1550,7 @@
         <v>0.4665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.544033333333333</v>
+        <v>0.544016666666667</v>
       </c>
       <c r="H14" t="n">
         <v>2.286</v>
@@ -1939,10 +1939,10 @@
         <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.66945040529526</v>
+        <v>1.69942150697314</v>
       </c>
       <c r="H19" t="n">
-        <v>7.47032188594394</v>
+        <v>9.08876137654973</v>
       </c>
       <c r="I19" t="n">
         <v>3.91</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.00927</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0152702443661877</v>
+        <v>0.015272744770345</v>
       </c>
       <c r="H26" t="n">
         <v>0.0963364901792108</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.00927</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0152702443661877</v>
+        <v>0.015272744770345</v>
       </c>
       <c r="H27" t="n">
         <v>0.0963364901792108</v>
@@ -2684,7 +2684,7 @@
         <v>0.4276</v>
       </c>
       <c r="G28" t="n">
-        <v>0.47442267493081</v>
+        <v>0.474431311303355</v>
       </c>
       <c r="H28" t="n">
         <v>1.68</v>
@@ -2765,7 +2765,7 @@
         <v>0.4276</v>
       </c>
       <c r="G29" t="n">
-        <v>0.47442267493081</v>
+        <v>0.474431311303355</v>
       </c>
       <c r="H29" t="n">
         <v>1.68</v>
@@ -2842,7 +2842,7 @@
         <v>0.474</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5042033898305081</v>
+        <v>0.5041610169491521</v>
       </c>
       <c r="H30" t="n">
         <v>1.725</v>
@@ -2919,7 +2919,7 @@
         <v>0.474</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5042033898305081</v>
+        <v>0.5041610169491521</v>
       </c>
       <c r="H31" t="n">
         <v>1.725</v>
@@ -3308,10 +3308,10 @@
         <v>1.35</v>
       </c>
       <c r="G36" t="n">
-        <v>1.58722818307304</v>
+        <v>1.61719928475092</v>
       </c>
       <c r="H36" t="n">
-        <v>7.47032188594394</v>
+        <v>9.08876137654973</v>
       </c>
       <c r="I36" t="n">
         <v>3.14</v>
@@ -3891,7 +3891,7 @@
         <v>0.008789999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0149058821686485</v>
+        <v>0.0149082672791139</v>
       </c>
       <c r="H43" t="n">
         <v>0.0963364901792108</v>
@@ -3972,7 +3972,7 @@
         <v>0.008789999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0149058821686485</v>
+        <v>0.0149082672791139</v>
       </c>
       <c r="H44" t="n">
         <v>0.0963364901792108</v>
@@ -4053,7 +4053,7 @@
         <v>0.375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.450132229109009</v>
+        <v>0.450139426086129</v>
       </c>
       <c r="H45" t="n">
         <v>1.68</v>
@@ -4134,7 +4134,7 @@
         <v>0.375</v>
       </c>
       <c r="G46" t="n">
-        <v>0.450132229109009</v>
+        <v>0.450139426086129</v>
       </c>
       <c r="H46" t="n">
         <v>1.68</v>
@@ -4211,7 +4211,7 @@
         <v>0.4205</v>
       </c>
       <c r="G47" t="n">
-        <v>0.473933333333333</v>
+        <v>0.473906666666667</v>
       </c>
       <c r="H47" t="n">
         <v>1.725</v>
@@ -4222,7 +4222,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.0885</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="M47" t="n">
         <v>0.963</v>
@@ -4288,7 +4288,7 @@
         <v>0.4205</v>
       </c>
       <c r="G48" t="n">
-        <v>0.473933333333333</v>
+        <v>0.473906666666667</v>
       </c>
       <c r="H48" t="n">
         <v>1.725</v>
@@ -4299,7 +4299,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.0885</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="M48" t="n">
         <v>0.963</v>
@@ -5260,7 +5260,7 @@
         <v>0.00699</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0142725735595904</v>
+        <v>0.0142712111163578</v>
       </c>
       <c r="H60" t="n">
         <v>0.0963364901792108</v>
@@ -5341,7 +5341,7 @@
         <v>0.00699</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0142725735595904</v>
+        <v>0.0142712111163578</v>
       </c>
       <c r="H61" t="n">
         <v>0.0963364901792108</v>
@@ -5422,7 +5422,7 @@
         <v>0.3357</v>
       </c>
       <c r="G62" t="n">
-        <v>0.441506014533122</v>
+        <v>0.441511596527377</v>
       </c>
       <c r="H62" t="n">
         <v>1.68</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00696</v>
+        <v>0.00702</v>
       </c>
       <c r="M62" t="n">
         <v>0.9214</v>
@@ -5503,7 +5503,7 @@
         <v>0.3357</v>
       </c>
       <c r="G63" t="n">
-        <v>0.441506014533122</v>
+        <v>0.441511596527377</v>
       </c>
       <c r="H63" t="n">
         <v>1.68</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00696</v>
+        <v>0.00702</v>
       </c>
       <c r="M63" t="n">
         <v>0.9214</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.3455</v>
+        <v>0.3456</v>
       </c>
       <c r="G64" t="n">
-        <v>0.463262426671427</v>
+        <v>0.46325961213203</v>
       </c>
       <c r="H64" t="n">
         <v>1.725</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.3455</v>
+        <v>0.3456</v>
       </c>
       <c r="G65" t="n">
-        <v>0.463262426671427</v>
+        <v>0.46325961213203</v>
       </c>
       <c r="H65" t="n">
         <v>1.725</v>
@@ -6783,7 +6783,7 @@
         <v>0.00197</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0108898885887258</v>
+        <v>0.0108862680103918</v>
       </c>
       <c r="H79" t="n">
         <v>0.0963364901792108</v>
@@ -6864,7 +6864,7 @@
         <v>0.00197</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0108898885887258</v>
+        <v>0.0108862680103918</v>
       </c>
       <c r="H80" t="n">
         <v>0.0963364901792108</v>
@@ -6945,7 +6945,7 @@
         <v>0.30225</v>
       </c>
       <c r="G81" t="n">
-        <v>0.420802099639518</v>
+        <v>0.420815258898619</v>
       </c>
       <c r="H81" t="n">
         <v>1.55</v>
@@ -6956,7 +6956,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00336</v>
+        <v>0.00349</v>
       </c>
       <c r="M81" t="n">
         <v>0.9214</v>
@@ -7026,7 +7026,7 @@
         <v>0.30225</v>
       </c>
       <c r="G82" t="n">
-        <v>0.420802099639518</v>
+        <v>0.420815258898619</v>
       </c>
       <c r="H82" t="n">
         <v>1.55</v>
@@ -7037,7 +7037,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00336</v>
+        <v>0.00349</v>
       </c>
       <c r="M82" t="n">
         <v>0.9214</v>
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.308</v>
+        <v>0.3079</v>
       </c>
       <c r="G84" t="n">
-        <v>0.43925128004151</v>
+        <v>0.439295304594202</v>
       </c>
       <c r="H84" t="n">
         <v>1.6</v>
@@ -7191,7 +7191,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.00876</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M84" t="n">
         <v>0.963</v>
@@ -7254,10 +7254,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.308</v>
+        <v>0.3079</v>
       </c>
       <c r="G85" t="n">
-        <v>0.43925128004151</v>
+        <v>0.439295304594202</v>
       </c>
       <c r="H85" t="n">
         <v>1.6</v>
@@ -7268,7 +7268,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.00876</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M85" t="n">
         <v>0.963</v>
@@ -8380,10 +8380,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.00165</v>
+        <v>0.00163</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0065294164865993</v>
+        <v>0.0065245465011549</v>
       </c>
       <c r="H99" t="n">
         <v>0.0546892139806947</v>
@@ -8461,10 +8461,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.00165</v>
+        <v>0.00163</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0065294164865993</v>
+        <v>0.0065245465011549</v>
       </c>
       <c r="H100" t="n">
         <v>0.0546892139806947</v>
@@ -8545,7 +8545,7 @@
         <v>0.2589</v>
       </c>
       <c r="G101" t="n">
-        <v>0.429752099639518</v>
+        <v>0.429765258898619</v>
       </c>
       <c r="H101" t="n">
         <v>1.55</v>
@@ -8556,7 +8556,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00336</v>
+        <v>0.00349</v>
       </c>
       <c r="M101" t="n">
         <v>0.99377</v>
@@ -8626,7 +8626,7 @@
         <v>0.2589</v>
       </c>
       <c r="G102" t="n">
-        <v>0.429752099639518</v>
+        <v>0.429765258898619</v>
       </c>
       <c r="H102" t="n">
         <v>1.55</v>
@@ -8637,7 +8637,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00336</v>
+        <v>0.00349</v>
       </c>
       <c r="M102" t="n">
         <v>0.99377</v>
@@ -8777,10 +8777,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.277</v>
+        <v>0.2768</v>
       </c>
       <c r="G104" t="n">
-        <v>0.44695128004151</v>
+        <v>0.446995304594202</v>
       </c>
       <c r="H104" t="n">
         <v>1.6</v>
@@ -8791,7 +8791,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00876</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M104" t="n">
         <v>1.018</v>
@@ -8854,10 +8854,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.277</v>
+        <v>0.2768</v>
       </c>
       <c r="G105" t="n">
-        <v>0.44695128004151</v>
+        <v>0.446995304594202</v>
       </c>
       <c r="H105" t="n">
         <v>1.6</v>
@@ -8868,7 +8868,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00876</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M105" t="n">
         <v>1.018</v>
@@ -9980,10 +9980,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.00224</v>
+        <v>0.00223</v>
       </c>
       <c r="G119" t="n">
-        <v>0.005870646036495</v>
+        <v>0.0058640475445026</v>
       </c>
       <c r="H119" t="n">
         <v>0.0365122886844359</v>
@@ -9994,7 +9994,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>0.00137</v>
+        <v>0.00135</v>
       </c>
       <c r="M119" t="n">
         <v>0.01045</v>
@@ -10061,10 +10061,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.00224</v>
+        <v>0.00223</v>
       </c>
       <c r="G120" t="n">
-        <v>0.005870646036495</v>
+        <v>0.0058640475445026</v>
       </c>
       <c r="H120" t="n">
         <v>0.0365122886844359</v>
@@ -10075,7 +10075,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00137</v>
+        <v>0.00135</v>
       </c>
       <c r="M120" t="n">
         <v>0.01045</v>
@@ -10145,7 +10145,7 @@
         <v>0.3137</v>
       </c>
       <c r="G121" t="n">
-        <v>0.452360432972851</v>
+        <v>0.452373592231952</v>
       </c>
       <c r="H121" t="n">
         <v>1.55</v>
@@ -10226,7 +10226,7 @@
         <v>0.3137</v>
       </c>
       <c r="G122" t="n">
-        <v>0.452360432972851</v>
+        <v>0.452373592231952</v>
       </c>
       <c r="H122" t="n">
         <v>1.55</v>
@@ -10380,7 +10380,7 @@
         <v>0.365</v>
       </c>
       <c r="G124" t="n">
-        <v>0.472767946708176</v>
+        <v>0.472833637927535</v>
       </c>
       <c r="H124" t="n">
         <v>1.6</v>
@@ -10457,7 +10457,7 @@
         <v>0.365</v>
       </c>
       <c r="G125" t="n">
-        <v>0.472767946708176</v>
+        <v>0.472833637927535</v>
       </c>
       <c r="H125" t="n">
         <v>1.6</v>
@@ -11580,10 +11580,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.0033</v>
+        <v>0.00328</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0060330986005503</v>
+        <v>0.0060245318396832</v>
       </c>
       <c r="H139" t="n">
         <v>0.0325574535781603</v>
@@ -11594,7 +11594,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00257</v>
+        <v>0.00255</v>
       </c>
       <c r="M139" t="n">
         <v>0.01069</v>
@@ -11661,10 +11661,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.0033</v>
+        <v>0.00328</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0060330986005503</v>
+        <v>0.0060245318396832</v>
       </c>
       <c r="H140" t="n">
         <v>0.0325574535781603</v>
@@ -11675,7 +11675,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00257</v>
+        <v>0.00255</v>
       </c>
       <c r="M140" t="n">
         <v>0.01069</v>
@@ -11745,7 +11745,7 @@
         <v>0.34795</v>
       </c>
       <c r="G141" t="n">
-        <v>0.452302404950201</v>
+        <v>0.452316923505499</v>
       </c>
       <c r="H141" t="n">
         <v>1.55</v>
@@ -11826,7 +11826,7 @@
         <v>0.34795</v>
       </c>
       <c r="G142" t="n">
-        <v>0.452302404950201</v>
+        <v>0.452316923505499</v>
       </c>
       <c r="H142" t="n">
         <v>1.55</v>
@@ -11977,10 +11977,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="G144" t="n">
-        <v>0.473925403893224</v>
+        <v>0.474036541089887</v>
       </c>
       <c r="H144" t="n">
         <v>1.6</v>
@@ -12054,10 +12054,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="G145" t="n">
-        <v>0.473925403893224</v>
+        <v>0.474036541089887</v>
       </c>
       <c r="H145" t="n">
         <v>1.6</v>
@@ -13183,7 +13183,7 @@
         <v>0.00428</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0063618302214822</v>
+        <v>0.006354049350405</v>
       </c>
       <c r="H159" t="n">
         <v>0.0325574535781603</v>
@@ -13194,7 +13194,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00315</v>
+        <v>0.00314</v>
       </c>
       <c r="M159" t="n">
         <v>0.01026</v>
@@ -13264,7 +13264,7 @@
         <v>0.00428</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0063618302214822</v>
+        <v>0.006354049350405</v>
       </c>
       <c r="H160" t="n">
         <v>0.0325574535781603</v>
@@ -13275,7 +13275,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00315</v>
+        <v>0.00314</v>
       </c>
       <c r="M160" t="n">
         <v>0.01026</v>
@@ -13345,7 +13345,7 @@
         <v>0.316</v>
       </c>
       <c r="G161" t="n">
-        <v>0.446810159139345</v>
+        <v>0.446817596967973</v>
       </c>
       <c r="H161" t="n">
         <v>1.73</v>
@@ -13426,7 +13426,7 @@
         <v>0.316</v>
       </c>
       <c r="G162" t="n">
-        <v>0.446810159139345</v>
+        <v>0.446817596967973</v>
       </c>
       <c r="H162" t="n">
         <v>1.73</v>
@@ -13580,7 +13580,7 @@
         <v>0.402</v>
       </c>
       <c r="G164" t="n">
-        <v>0.468962349717082</v>
+        <v>0.469062978601211</v>
       </c>
       <c r="H164" t="n">
         <v>1.752</v>
@@ -13657,7 +13657,7 @@
         <v>0.402</v>
       </c>
       <c r="G165" t="n">
-        <v>0.468962349717082</v>
+        <v>0.469062978601211</v>
       </c>
       <c r="H165" t="n">
         <v>1.752</v>
@@ -14780,10 +14780,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.00385</v>
+        <v>0.00384</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0063303746621845</v>
+        <v>0.0063233216618248</v>
       </c>
       <c r="H179" t="n">
         <v>0.0325574535781603</v>
@@ -14794,7 +14794,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.00329</v>
+        <v>0.00328</v>
       </c>
       <c r="M179" t="n">
         <v>0.01016</v>
@@ -14861,10 +14861,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.00385</v>
+        <v>0.00384</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0063303746621845</v>
+        <v>0.0063233216618248</v>
       </c>
       <c r="H180" t="n">
         <v>0.0325574535781603</v>
@@ -14875,7 +14875,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00329</v>
+        <v>0.00328</v>
       </c>
       <c r="M180" t="n">
         <v>0.01016</v>
@@ -14945,7 +14945,7 @@
         <v>0.278</v>
       </c>
       <c r="G181" t="n">
-        <v>0.395884015713231</v>
+        <v>0.39588144446778</v>
       </c>
       <c r="H181" t="n">
         <v>1.73</v>
@@ -15026,7 +15026,7 @@
         <v>0.278</v>
       </c>
       <c r="G182" t="n">
-        <v>0.395884015713231</v>
+        <v>0.39588144446778</v>
       </c>
       <c r="H182" t="n">
         <v>1.73</v>
@@ -15180,7 +15180,7 @@
         <v>0.325</v>
       </c>
       <c r="G184" t="n">
-        <v>0.41661775306954</v>
+        <v>0.416679223554935</v>
       </c>
       <c r="H184" t="n">
         <v>1.752</v>
@@ -15257,7 +15257,7 @@
         <v>0.325</v>
       </c>
       <c r="G185" t="n">
-        <v>0.41661775306954</v>
+        <v>0.416679223554935</v>
       </c>
       <c r="H185" t="n">
         <v>1.752</v>
@@ -15966,7 +15966,7 @@
         <v>440</v>
       </c>
       <c r="G194" t="n">
-        <v>1716.5192331237</v>
+        <v>1716.48300508689</v>
       </c>
       <c r="H194" t="n">
         <v>21000</v>
@@ -16051,7 +16051,7 @@
         <v>440</v>
       </c>
       <c r="G195" t="n">
-        <v>1716.5192331237</v>
+        <v>1716.48300508689</v>
       </c>
       <c r="H195" t="n">
         <v>21000</v>
@@ -16136,7 +16136,7 @@
         <v>440</v>
       </c>
       <c r="G196" t="n">
-        <v>1716.5192331237</v>
+        <v>1716.48300508689</v>
       </c>
       <c r="H196" t="n">
         <v>21000</v>
@@ -16221,7 +16221,7 @@
         <v>440</v>
       </c>
       <c r="G197" t="n">
-        <v>1716.5192331237</v>
+        <v>1716.48300508689</v>
       </c>
       <c r="H197" t="n">
         <v>21000</v>
@@ -16380,10 +16380,10 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.0048</v>
+        <v>0.00479</v>
       </c>
       <c r="G199" t="n">
-        <v>0.007303786211503</v>
+        <v>0.0072981508076723</v>
       </c>
       <c r="H199" t="n">
         <v>0.0325574535781603</v>
@@ -16394,7 +16394,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>0.0036</v>
+        <v>0.00359</v>
       </c>
       <c r="M199" t="n">
         <v>0.01498</v>
@@ -16461,10 +16461,10 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.0048</v>
+        <v>0.00479</v>
       </c>
       <c r="G200" t="n">
-        <v>0.007303786211503</v>
+        <v>0.0072981508076723</v>
       </c>
       <c r="H200" t="n">
         <v>0.0325574535781603</v>
@@ -16475,7 +16475,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.0036</v>
+        <v>0.00359</v>
       </c>
       <c r="M200" t="n">
         <v>0.01498</v>
@@ -16545,7 +16545,7 @@
         <v>0.282</v>
       </c>
       <c r="G201" t="n">
-        <v>0.436528083509841</v>
+        <v>0.43652551226439</v>
       </c>
       <c r="H201" t="n">
         <v>2.13</v>
@@ -16626,7 +16626,7 @@
         <v>0.282</v>
       </c>
       <c r="G202" t="n">
-        <v>0.436528083509841</v>
+        <v>0.43652551226439</v>
       </c>
       <c r="H202" t="n">
         <v>2.13</v>
@@ -16780,7 +16780,7 @@
         <v>0.325</v>
       </c>
       <c r="G204" t="n">
-        <v>0.458804193747506</v>
+        <v>0.458865664232901</v>
       </c>
       <c r="H204" t="n">
         <v>2.191</v>
@@ -16857,7 +16857,7 @@
         <v>0.325</v>
       </c>
       <c r="G205" t="n">
-        <v>0.458804193747506</v>
+        <v>0.458865664232901</v>
       </c>
       <c r="H205" t="n">
         <v>2.191</v>
@@ -17216,6 +17216,1525 @@
         </is>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.4618</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.52795</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0246949152542373</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.04655</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.04312</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.0246949152542373</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.04655</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.04312</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>410</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2673.38131017164</v>
+      </c>
+      <c r="H213" t="n">
+        <v>86640</v>
+      </c>
+      <c r="I213" t="n">
+        <v>7165.15</v>
+      </c>
+      <c r="J213" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="K213" t="n">
+        <v>69.4915254237288</v>
+      </c>
+      <c r="L213" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2382.7</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6090</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>410</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2673.38131017164</v>
+      </c>
+      <c r="H214" t="n">
+        <v>86640</v>
+      </c>
+      <c r="I214" t="n">
+        <v>7165.15</v>
+      </c>
+      <c r="J214" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="K214" t="n">
+        <v>69.4915254237288</v>
+      </c>
+      <c r="L214" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2382.7</v>
+      </c>
+      <c r="N214" t="n">
+        <v>6090</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>410</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2673.38131017164</v>
+      </c>
+      <c r="H215" t="n">
+        <v>86640</v>
+      </c>
+      <c r="I215" t="n">
+        <v>7165.15</v>
+      </c>
+      <c r="J215" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="K215" t="n">
+        <v>69.4915254237288</v>
+      </c>
+      <c r="L215" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2382.7</v>
+      </c>
+      <c r="N215" t="n">
+        <v>6090</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>410</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2673.38131017164</v>
+      </c>
+      <c r="H216" t="n">
+        <v>86640</v>
+      </c>
+      <c r="I216" t="n">
+        <v>7165.15</v>
+      </c>
+      <c r="J216" t="n">
+        <v>35.5932203389831</v>
+      </c>
+      <c r="K216" t="n">
+        <v>69.4915254237288</v>
+      </c>
+      <c r="L216" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2382.7</v>
+      </c>
+      <c r="N216" t="n">
+        <v>6090</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>131.43</v>
+      </c>
+      <c r="G217" t="n">
+        <v>121.686</v>
+      </c>
+      <c r="H217" t="n">
+        <v>135</v>
+      </c>
+      <c r="I217" t="n">
+        <v>135</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>131.43</v>
+      </c>
+      <c r="M217" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="N217" t="n">
+        <v>135</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.009396566979112999</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.132324821257989</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.02469</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.00374</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.01416</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.02056</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.009396566979112999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.132324821257989</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.02469</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.00374</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.01416</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.02056</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.420339071586424</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.76097</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1.1824</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.420339071586424</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.76097</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1.1824</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>6.367</v>
+      </c>
+      <c r="G222" t="n">
+        <v>6.2842</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="I222" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>6.367</v>
+      </c>
+      <c r="M222" t="n">
+        <v>6.6025</v>
+      </c>
+      <c r="N222" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.443272443893918</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.5873</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.82755</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1.2012</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.443272443893918</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.5873</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.82755</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.2012</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.735254237288136</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I225" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1.3105</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1.8778</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.735254237288136</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1.3105</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.8778</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.0721864406779661</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.2134</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.10288</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.1839</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.0721864406779661</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.2134</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.10288</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.1839</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
+++ b/state_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
@@ -570,10 +570,10 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79597747957363</v>
+        <v>1.79272889882511</v>
       </c>
       <c r="H2" t="n">
-        <v>9.08876137654973</v>
+        <v>8.9100894353809</v>
       </c>
       <c r="I2" t="n">
         <v>3.9</v>
@@ -1939,10 +1939,10 @@
         <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.69942150697314</v>
+        <v>1.69611276732187</v>
       </c>
       <c r="H19" t="n">
-        <v>9.08876137654973</v>
+        <v>8.9100894353809</v>
       </c>
       <c r="I19" t="n">
         <v>3.91</v>
@@ -3308,10 +3308,10 @@
         <v>1.35</v>
       </c>
       <c r="G36" t="n">
-        <v>1.61719928475092</v>
+        <v>1.61389054509965</v>
       </c>
       <c r="H36" t="n">
-        <v>9.08876137654973</v>
+        <v>8.9100894353809</v>
       </c>
       <c r="I36" t="n">
         <v>3.14</v>
